--- a/fornecedores.xlsx
+++ b/fornecedores.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\catalogo_de_produtos-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.cristiano\Documents\GitHub\Upload-catalogo-de-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE108F-AA1B-484C-8FF8-5B0B42579B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0847201-0DAD-451B-952F-2BEBD5F9BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83C67FFB-A91A-4DF7-A9DF-BB40D31193FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,67 +413,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F2598-E4DD-4856-9C8F-B95446C980C6}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
